--- a/biology/Médecine/IUNS/IUNS.xlsx
+++ b/biology/Médecine/IUNS/IUNS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Union internationale des sciences de la nutrition (International Union of Nutritional Sciences - IUNS) est une ONG fondée en 1948 dont l'objet est de faire progresser les connaissances en matière de nutrition. Elle fédère 68 organisations nationales dont deux avec le statut d'observateur et douze membres associés. Le correspondant français est la Société française de nutrition[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Union internationale des sciences de la nutrition (International Union of Nutritional Sciences - IUNS) est une ONG fondée en 1948 dont l'objet est de faire progresser les connaissances en matière de nutrition. Elle fédère 68 organisations nationales dont deux avec le statut d'observateur et douze membres associés. Le correspondant français est la Société française de nutrition.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Conseil de surveillance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conseil de surveillance comprend un président, un président-élu, un vice-président, un secrétaire général, un trésorier, un ancien président, et six personnalités représentatives.
 </t>
@@ -568,7 +584,9 @@
           <t>Siège</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le siège de l'IUNS est actuellement situé à Vienne.
 </t>
